--- a/Csv/AllType/所有Class类型.xlsx
+++ b/Csv/AllType/所有Class类型.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6315" windowWidth="28830" windowHeight="6255"/>
+    <workbookView xWindow="-15" yWindow="6315" windowWidth="28830" windowHeight="6255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="7" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="129">
   <si>
     <t>##class</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -516,6 +516,10 @@
   </si>
   <si>
     <t>j</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有Class类型.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -929,7 +933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
@@ -1648,8 +1652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1657,6 +1661,7 @@
     <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1668,7 +1673,9 @@
         <v>9</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">

--- a/Csv/AllType/所有Class类型.xlsx
+++ b/Csv/AllType/所有Class类型.xlsx
@@ -1653,7 +1653,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Csv/AllType/所有Class类型.xlsx
+++ b/Csv/AllType/所有Class类型.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6315" windowWidth="28830" windowHeight="6255" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="6315" windowWidth="28830" windowHeight="6255"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="7" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="110">
   <si>
     <t>##class</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -142,242 +142,150 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Elem列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VarListCardElem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card.CardElement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VarEnum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>枚举类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VarClass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VarDictBase</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础类型字典</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[int,long,string,enum]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>key:[int,long,string,enum]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VarDictEnum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>枚举类型字典</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict&lt;long,Card.CardElement&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Var1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Var2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类类型字典</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VarDictClass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card.CardElement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleClass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleClass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list&lt;string&gt;</t>
+  </si>
+  <si>
+    <t>##</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list&lt;SingleClass&gt;</t>
+  </si>
+  <si>
     <t>list&lt;CardElement&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elem列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VarListCardElem</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>error</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Card.CardElement</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VarEnum</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>枚举类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VarClass</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>类类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>error</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VarDictBase</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础类型字典</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[int,long,string,enum]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>key:[int,long,string,enum]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VarDictEnum</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>dict&lt;int,long&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>枚举类型字典</t>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>dict&lt;long,Card.CardElement&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Var1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Var2</t>
+  </si>
+  <si>
+    <t>VarDictClass</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>dict&lt;string,SingleClass&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>类类型字典</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VarLong</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VarFloat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VarString</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VarBool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VarEnum</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VarClass</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VarListBase</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VarListClass</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VarListCardElem</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VarDictBase</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VarDictEnum</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VarDictClass</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Card.CardElement</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SingleClass</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SingleClass</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Var1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Var2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>f</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>list&lt;string&gt;</t>
-  </si>
-  <si>
-    <t>##</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>list&lt;SingleClass&gt;</t>
-  </si>
-  <si>
-    <t>Var1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>list&lt;CardElement&gt;</t>
-  </si>
-  <si>
-    <t>dict&lt;int,long&gt;</t>
-  </si>
-  <si>
-    <t>##</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>key</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict&lt;long,Card.CardElement&gt;</t>
-  </si>
-  <si>
-    <t>VarDictClass</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict&lt;string,SingleClass&gt;</t>
-  </si>
-  <si>
-    <t>Var1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Var2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>s</t>
@@ -520,6 +428,22 @@
   </si>
   <si>
     <t>所有Class类型.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//跨命名空间引用必须带命名空间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list&lt;Card.CardElement&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict&lt;string,SingleClass&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict&lt;int,string&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -933,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -975,236 +899,236 @@
     <col min="41" max="42" width="6.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="T2" s="2" t="s">
+    <row r="1" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="2">
+        <v>1</v>
+      </c>
+      <c r="L1" s="2">
+        <v>2</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="X2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
+      <c r="U1" s="2">
+        <v>1</v>
+      </c>
+      <c r="V1" s="2">
+        <v>2</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1</v>
-      </c>
-      <c r="L3" s="2">
-        <v>2</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="T3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="U3" s="2">
-        <v>1</v>
-      </c>
-      <c r="V3" s="2">
-        <v>2</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="AJ4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="AL4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="AM4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ4" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AL4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM4" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="AO4" s="2" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="AP4" s="2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.15">
@@ -1218,40 +1142,40 @@
         <v>123.4</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="I5">
         <v>1.2</v>
       </c>
       <c r="K5" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="L5" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="O5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="P5">
         <v>1.2</v>
       </c>
       <c r="Q5" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="Y5">
         <v>999</v>
@@ -1269,28 +1193,28 @@
         <v>1</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="AG5">
         <v>7</v>
       </c>
       <c r="AH5" s="3" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="AK5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="AL5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="AM5">
         <v>1.3</v>
       </c>
       <c r="AN5" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="AO5" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="AP5">
         <v>2.2999999999999998</v>
@@ -1307,43 +1231,43 @@
         <v>123.45</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="I6">
         <v>1.3</v>
       </c>
       <c r="K6" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="O6" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="P6">
         <v>1.3</v>
       </c>
       <c r="Q6" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="R6">
         <v>1.4</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="Y6">
         <v>888</v>
@@ -1352,34 +1276,34 @@
         <v>777</v>
       </c>
       <c r="AA6" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="AE6">
         <v>2</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="AG6">
         <v>8</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="AK6" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="AL6" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="AM6">
         <v>1.4</v>
       </c>
       <c r="AN6" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="AO6" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="AP6">
         <v>3.4</v>
@@ -1396,65 +1320,65 @@
         <v>123.456</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="I7">
         <v>1.4</v>
       </c>
       <c r="K7" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="P7">
         <v>1.4</v>
       </c>
       <c r="Q7" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="Y7" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="AE7">
         <v>3</v>
       </c>
       <c r="AF7" s="4" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="AG7" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="AH7" s="4"/>
       <c r="AK7" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="AL7" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="AM7">
         <v>1.5</v>
       </c>
       <c r="AN7" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.15">
@@ -1468,43 +1392,43 @@
         <v>123.4567</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="H8" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="I8">
         <v>1.5</v>
       </c>
       <c r="K8" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="L8" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="O8" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="P8">
         <v>1.5</v>
       </c>
       <c r="Q8" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="R8">
         <v>1.6</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="Y8">
         <v>111</v>
@@ -1522,28 +1446,28 @@
         <v>4</v>
       </c>
       <c r="AF8" s="4" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="AG8">
         <v>10</v>
       </c>
       <c r="AH8" s="4" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="AK8" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="AL8" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="AM8">
         <v>1.6</v>
       </c>
       <c r="AN8" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="AO8" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="AP8">
         <v>5.6</v>
@@ -1560,43 +1484,43 @@
         <v>123.45677999999999</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="H9" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="I9">
         <v>1.6</v>
       </c>
       <c r="K9" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="L9" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="O9" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="P9">
         <v>1.6</v>
       </c>
       <c r="Q9" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="R9">
         <v>1.6</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="Y9">
         <v>888</v>
@@ -1614,28 +1538,28 @@
         <v>5</v>
       </c>
       <c r="AF9" s="4" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="AG9">
         <v>11</v>
       </c>
       <c r="AH9" s="4" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="AK9" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="AL9" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="AM9">
         <v>1.7</v>
       </c>
       <c r="AN9" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="AO9" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="AP9">
         <v>6.7</v>
@@ -1652,8 +1576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1674,7 +1598,7 @@
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -1706,7 +1630,7 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -1755,27 +1679,24 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
         <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -1802,52 +1723,52 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" t="s">
         <v>31</v>
       </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
         <v>41</v>
-      </c>
-      <c r="B13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1896,24 +1817,24 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Csv/AllType/所有Class类型.xlsx
+++ b/Csv/AllType/所有Class类型.xlsx
@@ -857,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1322,8 +1322,8 @@
       <c r="D7" t="s">
         <v>81</v>
       </c>
-      <c r="E7">
-        <v>1</v>
+      <c r="E7" t="b">
+        <v>0</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>86</v>
@@ -1394,7 +1394,7 @@
       <c r="D8" t="s">
         <v>82</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -1486,8 +1486,8 @@
       <c r="D9" t="s">
         <v>83</v>
       </c>
-      <c r="E9">
-        <v>1</v>
+      <c r="E9" t="b">
+        <v>0</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>88</v>

--- a/Csv/AllType/所有Class类型.xlsx
+++ b/Csv/AllType/所有Class类型.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6315" windowWidth="28830" windowHeight="6255"/>
+    <workbookView xWindow="-15" yWindow="6315" windowWidth="28830" windowHeight="6255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="7" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="114">
   <si>
     <t>##class</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -127,10 +127,6 @@
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -444,6 +440,26 @@
   </si>
   <si>
     <t>dict&lt;int,string&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inherit1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Var3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Var4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inherit2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -857,7 +873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -916,16 +932,16 @@
         <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>22</v>
@@ -937,28 +953,28 @@
         <v>2</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>25</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="Q1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="S1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U1" s="2">
         <v>1</v>
@@ -967,168 +983,168 @@
         <v>2</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="Z1" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="AA1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AB1" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="AC1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AE1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AF1" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="AG1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH1" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="AI1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AL1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AM1" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="AN1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AO1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AP1" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="AQ1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="T3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AD3" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="AJ3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="G4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="N4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="T4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="X4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="X4" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="AD4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AJ4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AL4" s="2" t="s">
+      <c r="AM4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AM4" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="AO4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP4" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="AP4" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.15">
@@ -1142,40 +1158,40 @@
         <v>123.4</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I5">
         <v>1.2</v>
       </c>
       <c r="K5" t="s">
+        <v>93</v>
+      </c>
+      <c r="L5" t="s">
         <v>94</v>
       </c>
-      <c r="L5" t="s">
-        <v>95</v>
-      </c>
       <c r="O5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P5">
         <v>1.2</v>
       </c>
       <c r="Q5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y5">
         <v>999</v>
@@ -1193,28 +1209,28 @@
         <v>1</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG5">
         <v>7</v>
       </c>
       <c r="AH5" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AK5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AL5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AM5">
         <v>1.3</v>
       </c>
       <c r="AN5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AO5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AP5">
         <v>2.2999999999999998</v>
@@ -1231,43 +1247,43 @@
         <v>123.45</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I6">
         <v>1.3</v>
       </c>
       <c r="K6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P6">
         <v>1.3</v>
       </c>
       <c r="Q6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R6">
         <v>1.4</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y6">
         <v>888</v>
@@ -1276,34 +1292,34 @@
         <v>777</v>
       </c>
       <c r="AA6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE6">
         <v>2</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG6">
         <v>8</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AK6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AM6">
         <v>1.4</v>
       </c>
       <c r="AN6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AO6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AP6">
         <v>3.4</v>
@@ -1320,65 +1336,65 @@
         <v>123.456</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I7">
         <v>1.4</v>
       </c>
       <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
         <v>92</v>
       </c>
-      <c r="L7" t="s">
-        <v>93</v>
-      </c>
       <c r="O7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P7">
         <v>1.4</v>
       </c>
       <c r="Q7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE7">
         <v>3</v>
       </c>
       <c r="AF7" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AH7" s="4"/>
       <c r="AK7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM7">
         <v>1.5</v>
       </c>
       <c r="AN7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.15">
@@ -1392,43 +1408,43 @@
         <v>123.4567</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I8">
         <v>1.5</v>
       </c>
       <c r="K8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" t="s">
         <v>91</v>
-      </c>
-      <c r="O8" t="s">
-        <v>92</v>
       </c>
       <c r="P8">
         <v>1.5</v>
       </c>
       <c r="Q8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R8">
         <v>1.6</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Y8">
         <v>111</v>
@@ -1446,28 +1462,28 @@
         <v>4</v>
       </c>
       <c r="AF8" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG8">
         <v>10</v>
       </c>
       <c r="AH8" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM8">
         <v>1.6</v>
       </c>
       <c r="AN8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AO8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AP8">
         <v>5.6</v>
@@ -1484,43 +1500,43 @@
         <v>123.45677999999999</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I9">
         <v>1.6</v>
       </c>
       <c r="K9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P9">
         <v>1.6</v>
       </c>
       <c r="Q9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R9">
         <v>1.6</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Y9">
         <v>888</v>
@@ -1538,28 +1554,28 @@
         <v>5</v>
       </c>
       <c r="AF9" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG9">
         <v>11</v>
       </c>
       <c r="AH9" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AK9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AM9">
         <v>1.7</v>
       </c>
       <c r="AN9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AO9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AP9">
         <v>6.7</v>
@@ -1598,7 +1614,7 @@
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -1630,7 +1646,7 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -1679,24 +1695,24 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
         <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
         <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -1715,7 +1731,7 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
@@ -1723,52 +1739,52 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" t="s">
         <v>38</v>
       </c>
-      <c r="B13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
         <v>42</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1779,20 +1795,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="3" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1817,24 +1836,106 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
-        <v>46</v>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/Csv/AllType/所有Class类型.xlsx
+++ b/Csv/AllType/所有Class类型.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6315" windowWidth="28830" windowHeight="6255" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="6315" windowWidth="28830" windowHeight="6255" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="7" r:id="rId1"/>
     <sheet name="define" sheetId="2" r:id="rId2"/>
     <sheet name="define1" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="115">
   <si>
     <t>##class</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -460,6 +461,10 @@
   </si>
   <si>
     <t>Inherit2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>##class</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1795,10 +1800,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1856,12 +1861,70 @@
         <v>45</v>
       </c>
     </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+    </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>28</v>
@@ -1888,53 +1951,12 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
         <v>112</v>
       </c>
     </row>

--- a/Csv/AllType/所有Class类型.xlsx
+++ b/Csv/AllType/所有Class类型.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6315" windowWidth="28830" windowHeight="6255" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="6315" windowWidth="28830" windowHeight="6255" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="7" r:id="rId1"/>
+    <sheet name="Xdata" sheetId="7" r:id="rId1"/>
     <sheet name="define" sheetId="2" r:id="rId2"/>
     <sheet name="define1" sheetId="6" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId4"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="121">
   <si>
     <t>##class</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -440,31 +440,43 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>##class</t>
+  </si>
+  <si>
+    <t>Inherit1</t>
+  </si>
+  <si>
+    <t>变量名</t>
+  </si>
+  <si>
+    <t>变量类型</t>
+  </si>
+  <si>
+    <t>变量注释</t>
+  </si>
+  <si>
+    <t>检查规则</t>
+  </si>
+  <si>
+    <t>分组</t>
+  </si>
+  <si>
+    <t>Var3</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Inherit2</t>
+  </si>
+  <si>
+    <t>Var4</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
     <t>dict&lt;int,string&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inherit1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Var3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Var4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inherit2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>##class</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -879,7 +891,7 @@
   <dimension ref="A1:AQ9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1597,7 +1609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1761,7 +1773,7 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="C13" t="s">
         <v>38</v>
@@ -1800,10 +1812,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:E10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1861,6 +1873,88 @@
         <v>45</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" t="s">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1870,97 +1964,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Csv/AllType/所有Class类型.xlsx
+++ b/Csv/AllType/所有Class类型.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6315" windowWidth="28830" windowHeight="6255" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="6315" windowWidth="28830" windowHeight="6255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Xdata" sheetId="7" r:id="rId1"/>
@@ -1609,7 +1609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1814,7 +1814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>

--- a/Csv/AllType/所有Class类型.xlsx
+++ b/Csv/AllType/所有Class类型.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6315" windowWidth="28830" windowHeight="6255" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="6315" windowWidth="28830" windowHeight="6255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Xdata" sheetId="7" r:id="rId1"/>
@@ -239,10 +239,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SingleClass</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>s</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -477,6 +473,10 @@
   </si>
   <si>
     <t>dict&lt;int,string&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inherit1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -970,7 +970,7 @@
         <v>2</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>25</v>
@@ -988,7 +988,7 @@
         <v>45</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>31</v>
@@ -1000,49 +1000,49 @@
         <v>2</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>37</v>
       </c>
       <c r="Y1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Z1" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="AA1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AB1" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="AC1" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AD1" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AE1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AF1" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="AG1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AH1" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="AI1" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AJ1" s="2" t="s">
         <v>47</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AL1" s="2" t="s">
         <v>44</v>
@@ -1051,7 +1051,7 @@
         <v>45</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AO1" s="2" t="s">
         <v>44</v>
@@ -1060,28 +1060,28 @@
         <v>45</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>36</v>
@@ -1090,16 +1090,16 @@
         <v>24</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="X3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD3" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="AJ3" s="2" t="s">
         <v>46</v>
@@ -1125,43 +1125,43 @@
         <v>53</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="N4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="T4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="X4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="X4" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="AD4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AJ4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AL4" s="2" t="s">
+      <c r="AM4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AM4" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="AO4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP4" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="AP4" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.15">
@@ -1175,40 +1175,40 @@
         <v>123.4</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I5">
         <v>1.2</v>
       </c>
       <c r="K5" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" t="s">
         <v>93</v>
       </c>
-      <c r="L5" t="s">
-        <v>94</v>
-      </c>
       <c r="O5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P5">
         <v>1.2</v>
       </c>
       <c r="Q5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y5">
         <v>999</v>
@@ -1226,28 +1226,28 @@
         <v>1</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG5">
         <v>7</v>
       </c>
       <c r="AH5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AK5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM5">
         <v>1.3</v>
       </c>
       <c r="AN5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP5">
         <v>2.2999999999999998</v>
@@ -1264,43 +1264,43 @@
         <v>123.45</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I6">
         <v>1.3</v>
       </c>
       <c r="K6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P6">
         <v>1.3</v>
       </c>
       <c r="Q6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R6">
         <v>1.4</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Y6">
         <v>888</v>
@@ -1309,34 +1309,34 @@
         <v>777</v>
       </c>
       <c r="AA6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE6">
         <v>2</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG6">
         <v>8</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AK6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AL6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AM6">
         <v>1.4</v>
       </c>
       <c r="AN6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AO6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP6">
         <v>3.4</v>
@@ -1353,65 +1353,65 @@
         <v>123.456</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I7">
         <v>1.4</v>
       </c>
       <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
         <v>91</v>
       </c>
-      <c r="L7" t="s">
-        <v>92</v>
-      </c>
       <c r="O7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P7">
         <v>1.4</v>
       </c>
       <c r="Q7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE7">
         <v>3</v>
       </c>
       <c r="AF7" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AH7" s="4"/>
       <c r="AK7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AL7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AM7">
         <v>1.5</v>
       </c>
       <c r="AN7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.15">
@@ -1425,43 +1425,43 @@
         <v>123.4567</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I8">
         <v>1.5</v>
       </c>
       <c r="K8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s">
         <v>90</v>
-      </c>
-      <c r="O8" t="s">
-        <v>91</v>
       </c>
       <c r="P8">
         <v>1.5</v>
       </c>
       <c r="Q8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R8">
         <v>1.6</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y8">
         <v>111</v>
@@ -1479,28 +1479,28 @@
         <v>4</v>
       </c>
       <c r="AF8" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG8">
         <v>10</v>
       </c>
       <c r="AH8" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AK8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM8">
         <v>1.6</v>
       </c>
       <c r="AN8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AO8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AP8">
         <v>5.6</v>
@@ -1517,43 +1517,43 @@
         <v>123.45677999999999</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I9">
         <v>1.6</v>
       </c>
       <c r="K9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P9">
         <v>1.6</v>
       </c>
       <c r="Q9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R9">
         <v>1.6</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y9">
         <v>888</v>
@@ -1571,28 +1571,28 @@
         <v>5</v>
       </c>
       <c r="AF9" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG9">
         <v>11</v>
       </c>
       <c r="AH9" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM9">
         <v>1.7</v>
       </c>
       <c r="AN9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AO9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AP9">
         <v>6.7</v>
@@ -1609,8 +1609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -1726,7 +1726,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="C9" t="s">
         <v>36</v>
@@ -1759,13 +1759,13 @@
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
         <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -1773,7 +1773,7 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C13" t="s">
         <v>38</v>
@@ -1795,10 +1795,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
         <v>46</v>
@@ -1814,8 +1814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1875,10 +1875,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>28</v>
@@ -1888,38 +1888,38 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" t="s">
         <v>115</v>
       </c>
-      <c r="B10" t="s">
-        <v>116</v>
-      </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>28</v>
@@ -1929,30 +1929,30 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" t="s">
         <v>118</v>
       </c>
-      <c r="B17" t="s">
-        <v>119</v>
-      </c>
       <c r="C17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/Csv/AllType/所有Class类型.xlsx
+++ b/Csv/AllType/所有Class类型.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="122">
   <si>
     <t>##class</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -128,10 +128,6 @@
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SingleClass</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -420,10 +416,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>所有Class类型.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>//跨命名空间引用必须带命名空间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -439,45 +431,57 @@
     <t>##class</t>
   </si>
   <si>
+    <t>变量名</t>
+  </si>
+  <si>
+    <t>变量类型</t>
+  </si>
+  <si>
+    <t>变量注释</t>
+  </si>
+  <si>
+    <t>检查规则</t>
+  </si>
+  <si>
+    <t>分组</t>
+  </si>
+  <si>
+    <t>Var3</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Inherit2</t>
+  </si>
+  <si>
+    <t>Var4</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>dict&lt;int,string&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleClass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Inherit1</t>
-  </si>
-  <si>
-    <t>变量名</t>
-  </si>
-  <si>
-    <t>变量类型</t>
-  </si>
-  <si>
-    <t>变量注释</t>
-  </si>
-  <si>
-    <t>检查规则</t>
-  </si>
-  <si>
-    <t>分组</t>
-  </si>
-  <si>
-    <t>Var3</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>Inherit2</t>
-  </si>
-  <si>
-    <t>Var4</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>dict&lt;int,string&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inherit1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleClass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleClass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lson数据</t>
   </si>
 </sst>
 </file>
@@ -891,7 +895,7 @@
   <dimension ref="A1:AQ9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -949,16 +953,16 @@
         <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>22</v>
@@ -970,28 +974,28 @@
         <v>2</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>25</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="Q1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="S1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U1" s="2">
         <v>1</v>
@@ -1000,168 +1004,168 @@
         <v>2</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Z1" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="AA1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AB1" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="AC1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AE1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AF1" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="AG1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AH1" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="AI1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AM1" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="AN1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AP1" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="AQ1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="T3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="X3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AD3" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="AJ3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="N4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="T4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="X4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="X4" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="AD4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AJ4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AL4" s="2" t="s">
+      <c r="AM4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AM4" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="AO4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP4" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="AP4" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.15">
@@ -1175,40 +1179,40 @@
         <v>123.4</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I5">
         <v>1.2</v>
       </c>
       <c r="K5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" t="s">
         <v>92</v>
       </c>
-      <c r="L5" t="s">
-        <v>93</v>
-      </c>
       <c r="O5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P5">
         <v>1.2</v>
       </c>
       <c r="Q5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Y5">
         <v>999</v>
@@ -1226,28 +1230,28 @@
         <v>1</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG5">
         <v>7</v>
       </c>
       <c r="AH5" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AL5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM5">
         <v>1.3</v>
       </c>
       <c r="AN5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AO5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AP5">
         <v>2.2999999999999998</v>
@@ -1264,43 +1268,43 @@
         <v>123.45</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I6">
         <v>1.3</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P6">
         <v>1.3</v>
       </c>
       <c r="Q6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R6">
         <v>1.4</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y6">
         <v>888</v>
@@ -1309,34 +1313,34 @@
         <v>777</v>
       </c>
       <c r="AA6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE6">
         <v>2</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG6">
         <v>8</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AK6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AL6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AM6">
         <v>1.4</v>
       </c>
       <c r="AN6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AO6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AP6">
         <v>3.4</v>
@@ -1353,65 +1357,65 @@
         <v>123.456</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I7">
         <v>1.4</v>
       </c>
       <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
         <v>90</v>
       </c>
-      <c r="L7" t="s">
-        <v>91</v>
-      </c>
       <c r="O7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P7">
         <v>1.4</v>
       </c>
       <c r="Q7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE7">
         <v>3</v>
       </c>
       <c r="AF7" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AH7" s="4"/>
       <c r="AK7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AL7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AM7">
         <v>1.5</v>
       </c>
       <c r="AN7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.15">
@@ -1425,43 +1429,43 @@
         <v>123.4567</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I8">
         <v>1.5</v>
       </c>
       <c r="K8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L8" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" t="s">
         <v>89</v>
-      </c>
-      <c r="O8" t="s">
-        <v>90</v>
       </c>
       <c r="P8">
         <v>1.5</v>
       </c>
       <c r="Q8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R8">
         <v>1.6</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Y8">
         <v>111</v>
@@ -1479,28 +1483,28 @@
         <v>4</v>
       </c>
       <c r="AF8" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG8">
         <v>10</v>
       </c>
       <c r="AH8" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AK8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AL8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AM8">
         <v>1.6</v>
       </c>
       <c r="AN8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AO8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP8">
         <v>5.6</v>
@@ -1517,43 +1521,43 @@
         <v>123.45677999999999</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I9">
         <v>1.6</v>
       </c>
       <c r="K9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P9">
         <v>1.6</v>
       </c>
       <c r="Q9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R9">
         <v>1.6</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y9">
         <v>888</v>
@@ -1571,28 +1575,28 @@
         <v>5</v>
       </c>
       <c r="AF9" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG9">
         <v>11</v>
       </c>
       <c r="AH9" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AK9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM9">
         <v>1.7</v>
       </c>
       <c r="AN9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AO9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AP9">
         <v>6.7</v>
@@ -1610,7 +1614,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1631,7 +1635,7 @@
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -1663,7 +1667,7 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -1712,24 +1716,24 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
         <v>33</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" t="s">
         <v>35</v>
-      </c>
-      <c r="B9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -1748,7 +1752,7 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
@@ -1756,52 +1760,52 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" t="s">
         <v>37</v>
       </c>
-      <c r="B13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
         <v>41</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1815,7 +1819,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1828,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1853,106 +1857,106 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C17" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1967,7 +1971,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
